--- a/dataset/task_sheet_answers_v2/XYScatterPlot/9_XYScatterPlot/9_XYScatterPlot_gt1.xlsx
+++ b/dataset/task_sheet_answers_v2/XYScatterPlot/9_XYScatterPlot/9_XYScatterPlot_gt1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\XYScatterPlot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers_v2\XYScatterPlot\9_XYScatterPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B8A875-8DAE-4F72-B415-39E4B6C30F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E73698C-B72F-475E-B142-47C1A6F72556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9888" windowHeight="12360" xr2:uid="{1AA3E20A-4573-462D-AAB1-231740041C4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AA3E20A-4573-462D-AAB1-231740041C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
